--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/S100a8-Tlr4.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.237935</v>
+        <v>0.1960026666666667</v>
       </c>
       <c r="H2">
-        <v>0.713805</v>
+        <v>0.588008</v>
       </c>
       <c r="I2">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639301</v>
       </c>
       <c r="J2">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639302</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N2">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P2">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q2">
-        <v>2.168946538161667</v>
+        <v>1.604967247992</v>
       </c>
       <c r="R2">
-        <v>19.520518843455</v>
+        <v>14.444705231928</v>
       </c>
       <c r="S2">
-        <v>0.0002499317445823489</v>
+        <v>0.005744373283610923</v>
       </c>
       <c r="T2">
-        <v>0.0002499317445823489</v>
+        <v>0.005744373283610923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.237935</v>
+        <v>0.1960026666666667</v>
       </c>
       <c r="H3">
-        <v>0.713805</v>
+        <v>0.588008</v>
       </c>
       <c r="I3">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639301</v>
       </c>
       <c r="J3">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639302</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>27.012288</v>
       </c>
       <c r="O3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P3">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q3">
-        <v>2.14238958176</v>
+        <v>1.764826826922667</v>
       </c>
       <c r="R3">
-        <v>19.28150623584</v>
+        <v>15.883441442304</v>
       </c>
       <c r="S3">
-        <v>0.0002468715370910699</v>
+        <v>0.006316530189297007</v>
       </c>
       <c r="T3">
-        <v>0.0002468715370910699</v>
+        <v>0.006316530189297008</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.237935</v>
+        <v>0.1960026666666667</v>
       </c>
       <c r="H4">
-        <v>0.713805</v>
+        <v>0.588008</v>
       </c>
       <c r="I4">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639301</v>
       </c>
       <c r="J4">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639302</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N4">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P4">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q4">
-        <v>7.557606813186666</v>
+        <v>3.930410310242667</v>
       </c>
       <c r="R4">
-        <v>68.01846131868</v>
+        <v>35.373692792184</v>
       </c>
       <c r="S4">
-        <v>0.0008708770928434924</v>
+        <v>0.01406741726850455</v>
       </c>
       <c r="T4">
-        <v>0.0008708770928434924</v>
+        <v>0.01406741726850456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.237935</v>
+        <v>0.1960026666666667</v>
       </c>
       <c r="H5">
-        <v>0.713805</v>
+        <v>0.588008</v>
       </c>
       <c r="I5">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639301</v>
       </c>
       <c r="J5">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639302</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N5">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O5">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P5">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q5">
-        <v>0.5668356436549999</v>
+        <v>0.3950924406675556</v>
       </c>
       <c r="R5">
-        <v>5.101520792895</v>
+        <v>3.555831966008</v>
       </c>
       <c r="S5">
-        <v>6.53175257285171E-05</v>
+        <v>0.001414083971848535</v>
       </c>
       <c r="T5">
-        <v>6.531752572851709E-05</v>
+        <v>0.001414083971848535</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.237935</v>
+        <v>0.1960026666666667</v>
       </c>
       <c r="H6">
-        <v>0.713805</v>
+        <v>0.588008</v>
       </c>
       <c r="I6">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639301</v>
       </c>
       <c r="J6">
-        <v>0.002259050200294824</v>
+        <v>0.04254991822639302</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N6">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P6">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q6">
-        <v>7.168610292088334</v>
+        <v>4.193071458481778</v>
       </c>
       <c r="R6">
-        <v>64.51749262879501</v>
+        <v>37.737643126336</v>
       </c>
       <c r="S6">
-        <v>0.0008260523000493953</v>
+        <v>0.015007513513132</v>
       </c>
       <c r="T6">
-        <v>0.0008260523000493953</v>
+        <v>0.015007513513132</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.879599</v>
       </c>
       <c r="I7">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294344</v>
       </c>
       <c r="J7">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294345</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N7">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P7">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q7">
-        <v>5.711293342274334</v>
+        <v>5.130363590901</v>
       </c>
       <c r="R7">
-        <v>51.401640080469</v>
+        <v>46.17327231810901</v>
       </c>
       <c r="S7">
-        <v>0.0006581229568092664</v>
+        <v>0.01836219622777548</v>
       </c>
       <c r="T7">
-        <v>0.0006581229568092663</v>
+        <v>0.01836219622777549</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.879599</v>
       </c>
       <c r="I8">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294344</v>
       </c>
       <c r="J8">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294345</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>27.012288</v>
       </c>
       <c r="O8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P8">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q8">
         <v>5.641363279168001</v>
@@ -948,10 +948,10 @@
         <v>50.772269512512</v>
       </c>
       <c r="S8">
-        <v>0.0006500647855434438</v>
+        <v>0.02019112635758776</v>
       </c>
       <c r="T8">
-        <v>0.0006500647855434438</v>
+        <v>0.02019112635758777</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.879599</v>
       </c>
       <c r="I9">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294344</v>
       </c>
       <c r="J9">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294345</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N9">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P9">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q9">
-        <v>19.90077151106933</v>
+        <v>12.563766630253</v>
       </c>
       <c r="R9">
-        <v>179.106943599624</v>
+        <v>113.073899672277</v>
       </c>
       <c r="S9">
-        <v>0.002293202923531687</v>
+        <v>0.04496725117764366</v>
       </c>
       <c r="T9">
-        <v>0.002293202923531687</v>
+        <v>0.04496725117764366</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.879599</v>
       </c>
       <c r="I10">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294344</v>
       </c>
       <c r="J10">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294345</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N10">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O10">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P10">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q10">
-        <v>1.492597710829</v>
+        <v>1.262934103594334</v>
       </c>
       <c r="R10">
-        <v>13.433379397461</v>
+        <v>11.366406932349</v>
       </c>
       <c r="S10">
-        <v>0.0001719948109662934</v>
+        <v>0.004520194996330891</v>
       </c>
       <c r="T10">
-        <v>0.0001719948109662933</v>
+        <v>0.004520194996330891</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.879599</v>
       </c>
       <c r="I11">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294344</v>
       </c>
       <c r="J11">
-        <v>0.005948555274092995</v>
+        <v>0.1360130878294345</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N11">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P11">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q11">
-        <v>18.87646168967567</v>
+        <v>13.40337702937867</v>
       </c>
       <c r="R11">
-        <v>169.888155207081</v>
+        <v>120.630393264408</v>
       </c>
       <c r="S11">
-        <v>0.002175169797242305</v>
+        <v>0.04797231907009664</v>
       </c>
       <c r="T11">
-        <v>0.002175169797242305</v>
+        <v>0.04797231907009665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>40.62604133333334</v>
+        <v>2.018435666666667</v>
       </c>
       <c r="H12">
-        <v>121.878124</v>
+        <v>6.055307000000001</v>
       </c>
       <c r="I12">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708937</v>
       </c>
       <c r="J12">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708938</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N12">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P12">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q12">
-        <v>370.3352247846939</v>
+        <v>16.527954401193</v>
       </c>
       <c r="R12">
-        <v>3333.017023062244</v>
+        <v>148.751589610737</v>
       </c>
       <c r="S12">
-        <v>0.04267441690341739</v>
+        <v>0.05915556209245829</v>
       </c>
       <c r="T12">
-        <v>0.04267441690341738</v>
+        <v>0.05915556209245829</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>40.62604133333334</v>
+        <v>2.018435666666667</v>
       </c>
       <c r="H13">
-        <v>121.878124</v>
+        <v>6.055307000000001</v>
       </c>
       <c r="I13">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708937</v>
       </c>
       <c r="J13">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708938</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>27.012288</v>
       </c>
       <c r="O13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P13">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q13">
-        <v>365.8007762653014</v>
+        <v>18.17418851249067</v>
       </c>
       <c r="R13">
-        <v>3292.206986387713</v>
+        <v>163.567696612416</v>
       </c>
       <c r="S13">
-        <v>0.04215190396488679</v>
+        <v>0.0650476345066079</v>
       </c>
       <c r="T13">
-        <v>0.04215190396488679</v>
+        <v>0.0650476345066079</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>40.62604133333334</v>
+        <v>2.018435666666667</v>
       </c>
       <c r="H14">
-        <v>121.878124</v>
+        <v>6.055307000000001</v>
       </c>
       <c r="I14">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708937</v>
       </c>
       <c r="J14">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708938</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N14">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P14">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q14">
-        <v>1290.418167876114</v>
+        <v>40.47536949239567</v>
       </c>
       <c r="R14">
-        <v>11613.76351088502</v>
+        <v>364.2783254315611</v>
       </c>
       <c r="S14">
-        <v>0.1486972861080249</v>
+        <v>0.1448662777681537</v>
       </c>
       <c r="T14">
-        <v>0.1486972861080249</v>
+        <v>0.1448662777681537</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>40.62604133333334</v>
+        <v>2.018435666666667</v>
       </c>
       <c r="H15">
-        <v>121.878124</v>
+        <v>6.055307000000001</v>
       </c>
       <c r="I15">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708937</v>
       </c>
       <c r="J15">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708938</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N15">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O15">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P15">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q15">
-        <v>96.78394640693735</v>
+        <v>4.068662367895223</v>
       </c>
       <c r="R15">
-        <v>871.055517662436</v>
+        <v>36.61796131105701</v>
       </c>
       <c r="S15">
-        <v>0.0111525941960527</v>
+        <v>0.01456223822349736</v>
       </c>
       <c r="T15">
-        <v>0.0111525941960527</v>
+        <v>0.01456223822349736</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>40.62604133333334</v>
+        <v>2.018435666666667</v>
       </c>
       <c r="H16">
-        <v>121.878124</v>
+        <v>6.055307000000001</v>
       </c>
       <c r="I16">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708937</v>
       </c>
       <c r="J16">
-        <v>0.3857199101067622</v>
+        <v>0.4381791024708938</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N16">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P16">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q16">
-        <v>1223.99923520684</v>
+        <v>43.18025427212712</v>
       </c>
       <c r="R16">
-        <v>11015.99311686156</v>
+        <v>388.622288449144</v>
       </c>
       <c r="S16">
-        <v>0.1410437089343805</v>
+        <v>0.1545473898801764</v>
       </c>
       <c r="T16">
-        <v>0.1410437089343805</v>
+        <v>0.1545473898801764</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,22 +1464,22 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.225787</v>
+        <v>0.1637293333333333</v>
       </c>
       <c r="H17">
-        <v>0.677361</v>
+        <v>0.491188</v>
       </c>
       <c r="I17">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235904</v>
       </c>
       <c r="J17">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235905</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N17">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P17">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q17">
-        <v>2.058208889032334</v>
+        <v>1.340697154812</v>
       </c>
       <c r="R17">
-        <v>18.523880001291</v>
+        <v>12.066274393308</v>
       </c>
       <c r="S17">
-        <v>0.0002371712392628861</v>
+        <v>0.004798518429052465</v>
       </c>
       <c r="T17">
-        <v>0.0002371712392628861</v>
+        <v>0.004798518429052466</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,22 +1526,22 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.225787</v>
+        <v>0.1637293333333333</v>
       </c>
       <c r="H18">
-        <v>0.677361</v>
+        <v>0.491188</v>
       </c>
       <c r="I18">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235904</v>
       </c>
       <c r="J18">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235905</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>27.012288</v>
       </c>
       <c r="O18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P18">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q18">
-        <v>2.033007823552</v>
+        <v>1.474234635349333</v>
       </c>
       <c r="R18">
-        <v>18.297070411968</v>
+        <v>13.268111718144</v>
       </c>
       <c r="S18">
-        <v>0.000234267273604898</v>
+        <v>0.005276465338261416</v>
       </c>
       <c r="T18">
-        <v>0.000234267273604898</v>
+        <v>0.005276465338261416</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,22 +1588,22 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.225787</v>
+        <v>0.1637293333333333</v>
       </c>
       <c r="H19">
-        <v>0.677361</v>
+        <v>0.491188</v>
       </c>
       <c r="I19">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235904</v>
       </c>
       <c r="J19">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235905</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N19">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P19">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q19">
-        <v>7.171745937037333</v>
+        <v>3.283238288369334</v>
       </c>
       <c r="R19">
-        <v>64.54571343333599</v>
+        <v>29.549144595324</v>
       </c>
       <c r="S19">
-        <v>0.0008264136262502517</v>
+        <v>0.01175110976939466</v>
       </c>
       <c r="T19">
-        <v>0.0008264136262502517</v>
+        <v>0.01175110976939466</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,22 +1650,22 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.225787</v>
+        <v>0.1637293333333333</v>
       </c>
       <c r="H20">
-        <v>0.677361</v>
+        <v>0.491188</v>
       </c>
       <c r="I20">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235904</v>
       </c>
       <c r="J20">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235905</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N20">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O20">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P20">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q20">
-        <v>0.5378953053309999</v>
+        <v>0.3300374582431111</v>
       </c>
       <c r="R20">
-        <v>4.841057747979</v>
+        <v>2.970337124188</v>
       </c>
       <c r="S20">
-        <v>6.198267670441377E-05</v>
+        <v>0.001181244265323496</v>
       </c>
       <c r="T20">
-        <v>6.198267670441377E-05</v>
+        <v>0.001181244265323496</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,22 +1712,22 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.225787</v>
+        <v>0.1637293333333333</v>
       </c>
       <c r="H21">
-        <v>0.677361</v>
+        <v>0.491188</v>
       </c>
       <c r="I21">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235904</v>
       </c>
       <c r="J21">
-        <v>0.00214371222213616</v>
+        <v>0.03554374980235905</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N21">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P21">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q21">
-        <v>6.802610007017667</v>
+        <v>3.502650276099556</v>
       </c>
       <c r="R21">
-        <v>61.22349006315901</v>
+        <v>31.523852484896</v>
       </c>
       <c r="S21">
-        <v>0.0007838774063137111</v>
+        <v>0.012536412000327</v>
       </c>
       <c r="T21">
-        <v>0.0007838774063137111</v>
+        <v>0.012536412000327</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>63.60894166666667</v>
+        <v>1.601716333333333</v>
       </c>
       <c r="H22">
-        <v>190.826825</v>
+        <v>4.805149</v>
       </c>
       <c r="I22">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709197</v>
       </c>
       <c r="J22">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709198</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>9.115710333333334</v>
+        <v>8.188497</v>
       </c>
       <c r="N22">
-        <v>27.347131</v>
+        <v>24.565491</v>
       </c>
       <c r="O22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="P22">
-        <v>0.1106357638930427</v>
+        <v>0.1350031568344539</v>
       </c>
       <c r="Q22">
-        <v>579.8406868432306</v>
+        <v>13.115649390351</v>
       </c>
       <c r="R22">
-        <v>5218.566181589075</v>
+        <v>118.040844513159</v>
       </c>
       <c r="S22">
-        <v>0.06681612104897079</v>
+        <v>0.04694250680155668</v>
       </c>
       <c r="T22">
-        <v>0.06681612104897078</v>
+        <v>0.04694250680155669</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>63.60894166666667</v>
+        <v>1.601716333333333</v>
       </c>
       <c r="H23">
-        <v>190.826825</v>
+        <v>4.805149</v>
       </c>
       <c r="I23">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709197</v>
       </c>
       <c r="J23">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709198</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>27.012288</v>
       </c>
       <c r="O23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="P23">
-        <v>0.1092811204721574</v>
+        <v>0.1484498784624918</v>
       </c>
       <c r="Q23">
-        <v>572.7410172250668</v>
+        <v>14.42200763010133</v>
       </c>
       <c r="R23">
-        <v>5154.669155025601</v>
+        <v>129.798068670912</v>
       </c>
       <c r="S23">
-        <v>0.06599801291103118</v>
+        <v>0.05161812207073768</v>
       </c>
       <c r="T23">
-        <v>0.06599801291103118</v>
+        <v>0.05161812207073769</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>63.60894166666667</v>
+        <v>1.601716333333333</v>
       </c>
       <c r="H24">
-        <v>190.826825</v>
+        <v>4.805149</v>
       </c>
       <c r="I24">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709197</v>
       </c>
       <c r="J24">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709198</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>31.76332533333333</v>
+        <v>20.052841</v>
       </c>
       <c r="N24">
-        <v>95.289976</v>
+        <v>60.158523</v>
       </c>
       <c r="O24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="P24">
-        <v>0.3855058611490069</v>
+        <v>0.3306097368661631</v>
       </c>
       <c r="Q24">
-        <v>2020.431508267356</v>
+        <v>32.11896295943633</v>
       </c>
       <c r="R24">
-        <v>18183.8835744062</v>
+        <v>289.070666634927</v>
       </c>
       <c r="S24">
-        <v>0.2328180813983566</v>
+        <v>0.1149576808824665</v>
       </c>
       <c r="T24">
-        <v>0.2328180813983566</v>
+        <v>0.1149576808824666</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>63.60894166666667</v>
+        <v>1.601716333333333</v>
       </c>
       <c r="H25">
-        <v>190.826825</v>
+        <v>4.805149</v>
       </c>
       <c r="I25">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709197</v>
       </c>
       <c r="J25">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709198</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.382313</v>
+        <v>2.015750333333334</v>
       </c>
       <c r="N25">
-        <v>7.146939</v>
+        <v>6.047251</v>
       </c>
       <c r="O25">
-        <v>0.0289137114881257</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="P25">
-        <v>0.02891371148812569</v>
+        <v>0.03323352971737092</v>
       </c>
       <c r="Q25">
-        <v>151.5364086487417</v>
+        <v>3.228660232822111</v>
       </c>
       <c r="R25">
-        <v>1363.827677838675</v>
+        <v>29.057942095399</v>
       </c>
       <c r="S25">
-        <v>0.01746182227867377</v>
+        <v>0.01155576826037063</v>
       </c>
       <c r="T25">
-        <v>0.01746182227867377</v>
+        <v>0.01155576826037063</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>63.60894166666667</v>
+        <v>1.601716333333333</v>
       </c>
       <c r="H26">
-        <v>190.826825</v>
+        <v>4.805149</v>
       </c>
       <c r="I26">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709197</v>
       </c>
       <c r="J26">
-        <v>0.6039287721967138</v>
+        <v>0.3477141416709198</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>30.12843966666667</v>
+        <v>21.39293066666667</v>
       </c>
       <c r="N26">
-        <v>90.38531900000001</v>
+        <v>64.178792</v>
       </c>
       <c r="O26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195203</v>
       </c>
       <c r="P26">
-        <v>0.3656635429976674</v>
+        <v>0.3527036981195202</v>
       </c>
       <c r="Q26">
-        <v>1916.438161264686</v>
+        <v>34.26540646666756</v>
       </c>
       <c r="R26">
-        <v>17247.94345138218</v>
+        <v>308.388658200008</v>
       </c>
       <c r="S26">
-        <v>0.2208347345596816</v>
+        <v>0.1226400636557882</v>
       </c>
       <c r="T26">
-        <v>0.2208347345596816</v>
+        <v>0.1226400636557882</v>
       </c>
     </row>
   </sheetData>
